--- a/mur silvia/modesFourier/LMS_ModalShapes_P6.xlsx
+++ b/mur silvia/modesFourier/LMS_ModalShapes_P6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpine\Documents\MATLAB\ondelettes\mur silvia\modesFourier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D049473C-FC13-477D-AEF0-D247D04B6760}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99A1822-C7E9-4327-9415-3D6214BC06DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>10.888</v>
+        <v>11.11</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -593,7 +593,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>30.251000000000001</v>
+        <v>32.790999999999997</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -763,7 +763,7 @@
         <v>14</v>
       </c>
       <c r="C23">
-        <v>36.218000000000004</v>
+        <v>37.363999999999997</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>

--- a/mur silvia/modesFourier/LMS_ModalShapes_P6.xlsx
+++ b/mur silvia/modesFourier/LMS_ModalShapes_P6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpine\Documents\MATLAB\ondelettes\mur silvia\modesFourier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99A1822-C7E9-4327-9415-3D6214BC06DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D049473C-FC13-477D-AEF0-D247D04B6760}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>11.11</v>
+        <v>10.888</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -593,7 +593,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>32.790999999999997</v>
+        <v>30.251000000000001</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -763,7 +763,7 @@
         <v>14</v>
       </c>
       <c r="C23">
-        <v>37.363999999999997</v>
+        <v>36.218000000000004</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
